--- a/06-03-2023/data/output/xlsx/sample_0/16_causality.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/16_causality.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="119">
   <si>
     <t>name</t>
   </si>
@@ -64,9 +64,6 @@
     <t>num_of_adds_and_subs__16</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__17</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
@@ -136,6 +133,30 @@
     <t>num_of_decimals__21</t>
   </si>
   <si>
+    <t>num_of_decimals__22</t>
+  </si>
+  <si>
+    <t>num_of_decimals__23</t>
+  </si>
+  <si>
+    <t>num_of_decimals__24</t>
+  </si>
+  <si>
+    <t>num_of_decimals__25</t>
+  </si>
+  <si>
+    <t>num_of_decimals__26</t>
+  </si>
+  <si>
+    <t>num_of_decimals__27</t>
+  </si>
+  <si>
+    <t>num_of_decimals__28</t>
+  </si>
+  <si>
+    <t>num_of_decimals__29</t>
+  </si>
+  <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
@@ -172,6 +193,18 @@
     <t>num_of_equals__12</t>
   </si>
   <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
+    <t>num_of_equals__14</t>
+  </si>
+  <si>
+    <t>num_of_equals__15</t>
+  </si>
+  <si>
+    <t>num_of_equals__16</t>
+  </si>
+  <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
@@ -220,6 +253,9 @@
     <t>num_of_mults_and_divs__15</t>
   </si>
   <si>
+    <t>num_of_mults_and_divs__16</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
@@ -250,9 +286,6 @@
     <t>num_of_unknowns__1</t>
   </si>
   <si>
-    <t>num_of_unknowns__10</t>
-  </si>
-  <si>
     <t>num_of_unknowns__2</t>
   </si>
   <si>
@@ -292,21 +325,6 @@
     <t>pairs_of_parentheses__12</t>
   </si>
   <si>
-    <t>pairs_of_parentheses__13</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__15</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__16</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__17</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
@@ -334,16 +352,25 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_equals__0,num_of_equals__1,num_of_unknowns__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_equals__1,num_of_unknowns__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_equals__0,num_of_unknowns__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_equals__0,num_of_equals__1</t>
+    <t>num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,num_of_mults_and_divs__16,num_of_unknowns__0,num_of_unknowns__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_equals__0,num_of_equals__1,num_of_mults_and_divs__16,num_of_unknowns__0,num_of_unknowns__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__1,num_of_mults_and_divs__16,num_of_unknowns__0,num_of_unknowns__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,num_of_mults_and_divs__16,num_of_unknowns__0,num_of_unknowns__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,num_of_unknowns__0,num_of_unknowns__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,num_of_mults_and_divs__16,num_of_unknowns__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,num_of_mults_and_divs__16,num_of_unknowns__0</t>
   </si>
 </sst>
 </file>
@@ -701,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -738,22 +765,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="D2">
-        <v>0.2409055808198133</v>
+        <v>0.3514524101516678</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F2">
-        <v>0.5289256198347108</v>
+        <v>0.5102669404517454</v>
       </c>
       <c r="G2">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H2">
-        <v>0.004877523642325965</v>
+        <v>0.00325291239563319</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -764,19 +791,22 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>835</v>
-      </c>
-      <c r="D3" t="s">
-        <v>105</v>
+        <v>847</v>
+      </c>
+      <c r="D3">
+        <v>0.1947648284678124</v>
+      </c>
+      <c r="E3" t="s">
+        <v>113</v>
       </c>
       <c r="F3">
-        <v>0.5221556886227545</v>
+        <v>0.512396694214876</v>
       </c>
       <c r="G3">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H3">
-        <v>-0.001892407569630272</v>
+        <v>0.005382666158763816</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -787,19 +817,19 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F4">
-        <v>0.09090909090909091</v>
+        <v>0.1875</v>
       </c>
       <c r="G4">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H4">
-        <v>-0.4331390052832939</v>
+        <v>-0.3195140280561122</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -810,19 +840,19 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F5">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="G5">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H5">
-        <v>-0.4129369850812737</v>
+        <v>-0.4070140280561122</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -836,16 +866,16 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F6">
         <v>0.1111111111111111</v>
       </c>
       <c r="G6">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H6">
-        <v>-0.4129369850812737</v>
+        <v>-0.3959029169450011</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -859,16 +889,16 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G7">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H7">
-        <v>-0.5240480961923848</v>
+        <v>-0.3403473613894455</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -882,16 +912,16 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G8">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H8">
-        <v>-0.5240480961923848</v>
+        <v>-0.3070140280561122</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -902,19 +932,19 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H9">
-        <v>-0.5240480961923848</v>
+        <v>-0.5070140280561122</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -925,19 +955,19 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H10">
-        <v>-0.5240480961923848</v>
+        <v>-0.5070140280561122</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -948,19 +978,19 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>444</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.4234234234234234</v>
       </c>
       <c r="G11">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H11">
-        <v>-0.5240480961923848</v>
+        <v>-0.08359060463268875</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -971,19 +1001,19 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>427</v>
+        <v>310</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F12">
-        <v>0.4847775175644028</v>
+        <v>0.3709677419354839</v>
       </c>
       <c r="G12">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H12">
-        <v>-0.039270578627982</v>
+        <v>-0.1360462861206283</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -994,19 +1024,19 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>295</v>
+        <v>202</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F13">
-        <v>0.4474576271186441</v>
+        <v>0.3514851485148515</v>
       </c>
       <c r="G13">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H13">
-        <v>-0.07659046907374073</v>
+        <v>-0.1555288795412607</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1017,19 +1047,19 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F14">
-        <v>0.4</v>
+        <v>0.3618421052631579</v>
       </c>
       <c r="G14">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H14">
-        <v>-0.1240480961923848</v>
+        <v>-0.1451719227929543</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1040,19 +1070,19 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F15">
-        <v>0.3846153846153846</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="G15">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H15">
-        <v>-0.1394327115770002</v>
+        <v>-0.1600752525459081</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1063,19 +1093,19 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F16">
-        <v>0.4102564102564102</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="G16">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H16">
-        <v>-0.1137916859359746</v>
+        <v>-0.1834846162914063</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1086,19 +1116,19 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F17">
-        <v>0.3653846153846154</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="G17">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H17">
-        <v>-0.1586634808077694</v>
+        <v>-0.2279442606142517</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1112,16 +1142,16 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F18">
-        <v>0.1923076923076923</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="G18">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H18">
-        <v>-0.3317404038846925</v>
+        <v>-0.2762447972868814</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1132,19 +1162,19 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>654</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F19">
-        <v>0.1764705882352941</v>
+        <v>0.4082568807339449</v>
       </c>
       <c r="G19">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H19">
-        <v>-0.3475775079570906</v>
+        <v>-0.09875714732216723</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1155,19 +1185,19 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>650</v>
+        <v>527</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F20">
-        <v>0.4246153846153846</v>
+        <v>0.349146110056926</v>
       </c>
       <c r="G20">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H20">
-        <v>-0.09943271157700018</v>
+        <v>-0.1578679179991862</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1178,19 +1208,19 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>522</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F21">
-        <v>0.3773946360153257</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="G21">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H21">
-        <v>-0.1466534601770591</v>
+        <v>-0.3275268485689327</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1201,19 +1231,19 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F22">
-        <v>0.25</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="G22">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H22">
-        <v>-0.2740480961923848</v>
+        <v>-0.2896227237082861</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1224,19 +1254,19 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="G23">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H23">
-        <v>-0.1907147628590515</v>
+        <v>-0.330543439820818</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1247,19 +1277,19 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F24">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G24">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H24">
-        <v>-0.2740480961923848</v>
+        <v>-0.3403473613894455</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1270,19 +1300,19 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F25">
-        <v>0.08333333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="G25">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H25">
-        <v>-0.4407147628590515</v>
+        <v>-0.4070140280561122</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1293,19 +1323,19 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F26">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="G26">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H26">
-        <v>-0.4129369850812737</v>
+        <v>-0.4070140280561122</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1319,16 +1349,16 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F27">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H27">
-        <v>-0.3990480961923848</v>
+        <v>-0.5070140280561122</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1339,19 +1369,19 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H28">
-        <v>-0.5240480961923848</v>
+        <v>-0.5070140280561122</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1362,19 +1392,19 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H29">
-        <v>-0.5240480961923848</v>
+        <v>-0.5070140280561122</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1388,16 +1418,16 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H30">
-        <v>-0.5240480961923848</v>
+        <v>-0.5070140280561122</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1408,19 +1438,19 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>0.3228915662650602</v>
       </c>
       <c r="G31">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H31">
-        <v>-0.5240480961923848</v>
+        <v>-0.184122461791052</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1431,19 +1461,19 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>411</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F32">
-        <v>0.3746958637469586</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H32">
-        <v>-0.1493522324454262</v>
+        <v>-0.5070140280561122</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1454,19 +1484,19 @@
         <v>38</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H33">
-        <v>-0.5240480961923848</v>
+        <v>-0.5070140280561122</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1480,16 +1510,16 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H34">
-        <v>-0.5240480961923848</v>
+        <v>-0.5070140280561122</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1500,19 +1530,19 @@
         <v>40</v>
       </c>
       <c r="C35">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F35">
-        <v>0.3003300330033004</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H35">
-        <v>-0.2237180631890844</v>
+        <v>-0.5070140280561122</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1523,19 +1553,19 @@
         <v>41</v>
       </c>
       <c r="C36">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F36">
-        <v>0.3140096618357488</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H36">
-        <v>-0.210038434356636</v>
+        <v>-0.5070140280561122</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1546,19 +1576,19 @@
         <v>42</v>
       </c>
       <c r="C37">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F37">
-        <v>0.3374233128834356</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H37">
-        <v>-0.1866247833089492</v>
+        <v>-0.5070140280561122</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1569,19 +1599,19 @@
         <v>43</v>
       </c>
       <c r="C38">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F38">
-        <v>0.2946428571428572</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H38">
-        <v>-0.2294052390495276</v>
+        <v>-0.5070140280561122</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1592,19 +1622,19 @@
         <v>44</v>
       </c>
       <c r="C39">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F39">
-        <v>0.2808988764044944</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H39">
-        <v>-0.2431492197878904</v>
+        <v>-0.5070140280561122</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1615,19 +1645,19 @@
         <v>45</v>
       </c>
       <c r="C40">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F40">
-        <v>0.2372881355932203</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H40">
-        <v>-0.2867599605991644</v>
+        <v>-0.5070140280561122</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1638,19 +1668,19 @@
         <v>46</v>
       </c>
       <c r="C41">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F41">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H41">
-        <v>-0.3240480961923848</v>
+        <v>-0.5070140280561122</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1661,22 +1691,19 @@
         <v>47</v>
       </c>
       <c r="C42">
-        <v>996</v>
-      </c>
-      <c r="D42">
-        <v>0.5287885510009379</v>
-      </c>
-      <c r="E42" t="s">
-        <v>107</v>
+        <v>296</v>
+      </c>
+      <c r="D42" t="s">
+        <v>111</v>
       </c>
       <c r="F42">
-        <v>0.5251004016064257</v>
+        <v>0.2601351351351351</v>
       </c>
       <c r="G42">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H42">
-        <v>0.001052305414040888</v>
+        <v>-0.246878892920977</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1687,22 +1714,19 @@
         <v>48</v>
       </c>
       <c r="C43">
-        <v>991</v>
-      </c>
-      <c r="D43">
-        <v>0.1508299068006749</v>
-      </c>
-      <c r="E43" t="s">
-        <v>108</v>
+        <v>215</v>
+      </c>
+      <c r="D43" t="s">
+        <v>111</v>
       </c>
       <c r="F43">
-        <v>0.5257315842583249</v>
+        <v>0.2744186046511628</v>
       </c>
       <c r="G43">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H43">
-        <v>0.001683488065940097</v>
+        <v>-0.2325954234049494</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1713,19 +1737,19 @@
         <v>49</v>
       </c>
       <c r="C44">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F44">
-        <v>0.1666666666666667</v>
+        <v>0.2530120481927711</v>
       </c>
       <c r="G44">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H44">
-        <v>-0.3573814295257182</v>
+        <v>-0.2540019798633411</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1736,19 +1760,19 @@
         <v>50</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="G45">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H45">
-        <v>-0.5240480961923848</v>
+        <v>-0.2631115890317219</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1759,19 +1783,19 @@
         <v>51</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>0.2680412371134021</v>
       </c>
       <c r="G46">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H46">
-        <v>-0.5240480961923848</v>
+        <v>-0.2389727909427101</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1782,19 +1806,19 @@
         <v>52</v>
       </c>
       <c r="C47">
-        <v>649</v>
+        <v>74</v>
       </c>
       <c r="D47" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F47">
-        <v>0.4992295839753467</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="G47">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H47">
-        <v>-0.02481851221703812</v>
+        <v>-0.3043113253534094</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1805,19 +1829,19 @@
         <v>53</v>
       </c>
       <c r="C48">
-        <v>475</v>
+        <v>48</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F48">
-        <v>0.4905263157894737</v>
+        <v>0.1875</v>
       </c>
       <c r="G48">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H48">
-        <v>-0.03352178040291109</v>
+        <v>-0.3195140280561122</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1828,19 +1852,22 @@
         <v>54</v>
       </c>
       <c r="C49">
-        <v>307</v>
-      </c>
-      <c r="D49" t="s">
-        <v>105</v>
+        <v>996</v>
+      </c>
+      <c r="D49">
+        <v>0.5959578233859046</v>
+      </c>
+      <c r="E49" t="s">
+        <v>114</v>
       </c>
       <c r="F49">
-        <v>0.5146579804560261</v>
+        <v>0.5080321285140562</v>
       </c>
       <c r="G49">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H49">
-        <v>-0.009390115736358728</v>
+        <v>0.001018100457944038</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1851,19 +1878,22 @@
         <v>55</v>
       </c>
       <c r="C50">
-        <v>233</v>
-      </c>
-      <c r="D50" t="s">
-        <v>105</v>
+        <v>988</v>
+      </c>
+      <c r="D50">
+        <v>0.4758930684532397</v>
+      </c>
+      <c r="E50" t="s">
+        <v>115</v>
       </c>
       <c r="F50">
-        <v>0.5021459227467812</v>
+        <v>0.5101214574898786</v>
       </c>
       <c r="G50">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H50">
-        <v>-0.02190217344560363</v>
+        <v>0.003107429433766407</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1874,19 +1904,19 @@
         <v>56</v>
       </c>
       <c r="C51">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F51">
-        <v>0.474025974025974</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="G51">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H51">
-        <v>-0.05002212216641078</v>
+        <v>-0.2403473613894455</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1897,19 +1927,19 @@
         <v>57</v>
       </c>
       <c r="C52">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F52">
-        <v>0.4752475247524752</v>
+        <v>0.125</v>
       </c>
       <c r="G52">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H52">
-        <v>-0.04880057143990957</v>
+        <v>-0.3820140280561122</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1920,19 +1950,19 @@
         <v>58</v>
       </c>
       <c r="C53">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F53">
-        <v>0.4677419354838709</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H53">
-        <v>-0.05630616070851385</v>
+        <v>-0.5070140280561122</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1943,19 +1973,19 @@
         <v>59</v>
       </c>
       <c r="C54">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F54">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H54">
-        <v>-0.1907147628590515</v>
+        <v>-0.5070140280561122</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1966,19 +1996,19 @@
         <v>60</v>
       </c>
       <c r="C55">
-        <v>216</v>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F55">
-        <v>0.2731481481481481</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H55">
-        <v>-0.2508999480442367</v>
+        <v>-0.5070140280561122</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1989,19 +2019,19 @@
         <v>61</v>
       </c>
       <c r="C56">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F56">
-        <v>0.2865497076023392</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H56">
-        <v>-0.2374983885900456</v>
+        <v>-0.5070140280561122</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2012,19 +2042,19 @@
         <v>62</v>
       </c>
       <c r="C57">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H57">
-        <v>-0.5240480961923848</v>
+        <v>-0.5070140280561122</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2035,19 +2065,19 @@
         <v>63</v>
       </c>
       <c r="C58">
-        <v>8</v>
+        <v>636</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>0.4544025157232705</v>
       </c>
       <c r="G58">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H58">
-        <v>-0.5240480961923848</v>
+        <v>-0.05261151233284173</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2058,19 +2088,19 @@
         <v>64</v>
       </c>
       <c r="C59">
-        <v>6</v>
+        <v>486</v>
       </c>
       <c r="D59" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>0.4423868312757201</v>
       </c>
       <c r="G59">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H59">
-        <v>-0.5240480961923848</v>
+        <v>-0.06462719678039203</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2081,19 +2111,19 @@
         <v>65</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>0.434375</v>
       </c>
       <c r="G60">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H60">
-        <v>-0.5240480961923848</v>
+        <v>-0.07263902805611216</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2104,19 +2134,19 @@
         <v>66</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>236</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="G61">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H61">
-        <v>-0.5240480961923848</v>
+        <v>-0.06633606195441727</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2127,19 +2157,19 @@
         <v>67</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.4311377245508982</v>
       </c>
       <c r="G62">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H62">
-        <v>-0.5240480961923848</v>
+        <v>-0.07587630350521396</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2153,16 +2183,16 @@
         <v>110</v>
       </c>
       <c r="D63" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F63">
-        <v>0.2727272727272727</v>
+        <v>0.4454545454545454</v>
       </c>
       <c r="G63">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H63">
-        <v>-0.2513208234651121</v>
+        <v>-0.06155948260156674</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2173,19 +2203,19 @@
         <v>69</v>
       </c>
       <c r="C64">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D64" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F64">
-        <v>0.2903225806451613</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="G64">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H64">
-        <v>-0.2337255155472235</v>
+        <v>-0.060860181902266</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2196,19 +2226,19 @@
         <v>70</v>
       </c>
       <c r="C65">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="D65" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F65">
-        <v>0.2753623188405797</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="G65">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H65">
-        <v>-0.2486857773518051</v>
+        <v>-0.1834846162914063</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2219,19 +2249,19 @@
         <v>71</v>
       </c>
       <c r="C66">
-        <v>53</v>
+        <v>225</v>
       </c>
       <c r="D66" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F66">
-        <v>0.2452830188679245</v>
+        <v>0.2488888888888889</v>
       </c>
       <c r="G66">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H66">
-        <v>-0.2787650773244603</v>
+        <v>-0.2581251391672233</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2242,19 +2272,19 @@
         <v>72</v>
       </c>
       <c r="C67">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="D67" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F67">
-        <v>0.28125</v>
+        <v>0.2415730337078652</v>
       </c>
       <c r="G67">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H67">
-        <v>-0.2427980961923848</v>
+        <v>-0.265440994348247</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2265,19 +2295,19 @@
         <v>73</v>
       </c>
       <c r="C68">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F68">
-        <v>0.16</v>
+        <v>0.125</v>
       </c>
       <c r="G68">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H68">
-        <v>-0.3640480961923848</v>
+        <v>-0.3820140280561122</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2288,19 +2318,19 @@
         <v>74</v>
       </c>
       <c r="C69">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F69">
-        <v>0.1176470588235294</v>
+        <v>0.2</v>
       </c>
       <c r="G69">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H69">
-        <v>-0.4064010373688554</v>
+        <v>-0.3070140280561122</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2311,19 +2341,19 @@
         <v>75</v>
       </c>
       <c r="C70">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F70">
-        <v>0.09090909090909091</v>
+        <v>0.2</v>
       </c>
       <c r="G70">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H70">
-        <v>-0.4331390052832939</v>
+        <v>-0.3070140280561122</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2334,19 +2364,19 @@
         <v>76</v>
       </c>
       <c r="C71">
-        <v>998</v>
+        <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F71">
-        <v>0.5240480961923848</v>
+        <v>0.25</v>
       </c>
       <c r="G71">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>-0.2570140280561122</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2357,22 +2387,19 @@
         <v>77</v>
       </c>
       <c r="C72">
-        <v>708</v>
-      </c>
-      <c r="D72">
-        <v>0.02067753107212359</v>
-      </c>
-      <c r="E72" t="s">
-        <v>109</v>
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
+        <v>111</v>
       </c>
       <c r="F72">
-        <v>0.5296610169491526</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G72">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H72">
-        <v>0.005612920756767781</v>
+        <v>-0.1736806947227789</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2383,19 +2410,19 @@
         <v>78</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G73">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H73">
-        <v>-0.5240480961923848</v>
+        <v>-0.007014028056112176</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2406,19 +2433,22 @@
         <v>79</v>
       </c>
       <c r="C74">
-        <v>121</v>
-      </c>
-      <c r="D74" t="s">
-        <v>105</v>
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>0.4872736515035486</v>
+      </c>
+      <c r="E74" t="s">
+        <v>116</v>
       </c>
       <c r="F74">
-        <v>0.3057851239669421</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H74">
-        <v>-0.2182629722254427</v>
+        <v>0.4929859719438878</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2429,19 +2459,19 @@
         <v>80</v>
       </c>
       <c r="C75">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="D75" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F75">
-        <v>0.2222222222222222</v>
+        <v>0.2695652173913043</v>
       </c>
       <c r="G75">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H75">
-        <v>-0.3018258739701626</v>
+        <v>-0.2374488106648078</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2452,19 +2482,19 @@
         <v>81</v>
       </c>
       <c r="C76">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="D76" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F76">
-        <v>0.1935483870967742</v>
+        <v>0.2873563218390804</v>
       </c>
       <c r="G76">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H76">
-        <v>-0.3304997090956106</v>
+        <v>-0.2196577062170317</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2475,19 +2505,19 @@
         <v>82</v>
       </c>
       <c r="C77">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D77" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F77">
-        <v>0.09523809523809523</v>
+        <v>0.2321428571428572</v>
       </c>
       <c r="G77">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H77">
-        <v>-0.4288100009542896</v>
+        <v>-0.274871170913255</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2498,19 +2528,19 @@
         <v>83</v>
       </c>
       <c r="C78">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D78" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F78">
-        <v>0.09090909090909091</v>
+        <v>0.2</v>
       </c>
       <c r="G78">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H78">
-        <v>-0.4331390052832939</v>
+        <v>-0.3070140280561122</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2521,19 +2551,19 @@
         <v>84</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G79">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H79">
-        <v>-0.5240480961923848</v>
+        <v>-0.2212997423418265</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2544,19 +2574,19 @@
         <v>85</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D80" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="G80">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H80">
-        <v>-0.5240480961923848</v>
+        <v>-0.3165378375799217</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2567,19 +2597,19 @@
         <v>86</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G81">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H81">
-        <v>-0.5240480961923848</v>
+        <v>-0.2570140280561122</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2590,19 +2620,19 @@
         <v>87</v>
       </c>
       <c r="C82">
-        <v>457</v>
+        <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F82">
-        <v>0.4617067833698031</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G82">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H82">
-        <v>-0.06234131282258171</v>
+        <v>-0.3403473613894455</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2613,19 +2643,22 @@
         <v>88</v>
       </c>
       <c r="C83">
-        <v>180</v>
-      </c>
-      <c r="D83" t="s">
-        <v>105</v>
+        <v>997</v>
+      </c>
+      <c r="D83">
+        <v>0.5957041237354747</v>
+      </c>
+      <c r="E83" t="s">
+        <v>117</v>
       </c>
       <c r="F83">
-        <v>0.3277777777777778</v>
+        <v>0.5075225677031093</v>
       </c>
       <c r="G83">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H83">
-        <v>-0.196270318414607</v>
+        <v>0.0005085396469971526</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2636,19 +2669,22 @@
         <v>89</v>
       </c>
       <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84" t="s">
-        <v>105</v>
+        <v>704</v>
+      </c>
+      <c r="D84">
+        <v>0.2367918661638554</v>
+      </c>
+      <c r="E84" t="s">
+        <v>118</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>0.53125</v>
       </c>
       <c r="G84">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H84">
-        <v>-0.5240480961923848</v>
+        <v>0.02423597194388782</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2659,19 +2695,19 @@
         <v>90</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="D85" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>0.2689075630252101</v>
       </c>
       <c r="G85">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H85">
-        <v>-0.5240480961923848</v>
+        <v>-0.2381064650309021</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2682,19 +2718,19 @@
         <v>91</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="G86">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H86">
-        <v>-0.5240480961923848</v>
+        <v>-0.2964877122666385</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2705,19 +2741,19 @@
         <v>92</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="G87">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H87">
-        <v>-0.5240480961923848</v>
+        <v>-0.237783258825343</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2728,19 +2764,19 @@
         <v>93</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G88">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H88">
-        <v>-0.5240480961923848</v>
+        <v>-0.2292362502783344</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2751,19 +2787,19 @@
         <v>94</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="G89">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H89">
-        <v>-0.5240480961923848</v>
+        <v>-0.2342867553288395</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2774,19 +2810,19 @@
         <v>95</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G90">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H90">
-        <v>-0.5240480961923848</v>
+        <v>-0.2570140280561122</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2797,19 +2833,19 @@
         <v>96</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G91">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H91">
-        <v>-0.5240480961923848</v>
+        <v>-0.007014028056112176</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2820,19 +2856,19 @@
         <v>97</v>
       </c>
       <c r="C92">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F92">
-        <v>0.2978723404255319</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H92">
-        <v>-0.2261757557668529</v>
+        <v>-0.5070140280561122</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2843,19 +2879,19 @@
         <v>98</v>
       </c>
       <c r="C93">
-        <v>55</v>
+        <v>466</v>
       </c>
       <c r="D93" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F93">
-        <v>0.2545454545454545</v>
+        <v>0.4377682403433477</v>
       </c>
       <c r="G93">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H93">
-        <v>-0.2695026416469303</v>
+        <v>-0.06924578771276452</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2866,19 +2902,19 @@
         <v>99</v>
       </c>
       <c r="C94">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="D94" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F94">
-        <v>0.2666666666666667</v>
+        <v>0.3206521739130435</v>
       </c>
       <c r="G94">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H94">
-        <v>-0.2573814295257181</v>
+        <v>-0.1863618541430687</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2889,19 +2925,19 @@
         <v>100</v>
       </c>
       <c r="C95">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F95">
-        <v>0.1904761904761905</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H95">
-        <v>-0.3335719057161943</v>
+        <v>-0.5070140280561122</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2912,19 +2948,19 @@
         <v>101</v>
       </c>
       <c r="C96">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H96">
-        <v>-0.5240480961923848</v>
+        <v>-0.5070140280561122</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2935,19 +2971,19 @@
         <v>102</v>
       </c>
       <c r="C97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H97">
-        <v>-0.5240480961923848</v>
+        <v>-0.5070140280561122</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2958,19 +2994,19 @@
         <v>103</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D98" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="G98">
-        <v>0.5240480961923848</v>
+        <v>0.5070140280561122</v>
       </c>
       <c r="H98">
-        <v>-0.5240480961923848</v>
+        <v>-0.2128963809972886</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2981,19 +3017,157 @@
         <v>104</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D99" t="s">
+        <v>111</v>
+      </c>
+      <c r="F99">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="G99">
+        <v>0.5070140280561122</v>
+      </c>
+      <c r="H99">
+        <v>-0.2403473613894455</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
         <v>105</v>
       </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>0.5240480961923848</v>
-      </c>
-      <c r="H99">
-        <v>-0.5240480961923848</v>
+      <c r="C100">
+        <v>23</v>
+      </c>
+      <c r="D100" t="s">
+        <v>111</v>
+      </c>
+      <c r="F100">
+        <v>0.3043478260869565</v>
+      </c>
+      <c r="G100">
+        <v>0.5070140280561122</v>
+      </c>
+      <c r="H100">
+        <v>-0.2026662019691556</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101">
+        <v>17</v>
+      </c>
+      <c r="D101" t="s">
+        <v>111</v>
+      </c>
+      <c r="F101">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="G101">
+        <v>0.5070140280561122</v>
+      </c>
+      <c r="H101">
+        <v>-0.330543439820818</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>111</v>
+      </c>
+      <c r="F102">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="G102">
+        <v>0.5070140280561122</v>
+      </c>
+      <c r="H102">
+        <v>-0.4161049371470212</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>111</v>
+      </c>
+      <c r="F103">
+        <v>0.125</v>
+      </c>
+      <c r="G103">
+        <v>0.5070140280561122</v>
+      </c>
+      <c r="H103">
+        <v>-0.3820140280561122</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104">
+        <v>6</v>
+      </c>
+      <c r="D104" t="s">
+        <v>111</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0.5070140280561122</v>
+      </c>
+      <c r="H104">
+        <v>-0.5070140280561122</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s">
+        <v>111</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0.5070140280561122</v>
+      </c>
+      <c r="H105">
+        <v>-0.5070140280561122</v>
       </c>
     </row>
   </sheetData>
